--- a/docs/额外BOM.xlsx
+++ b/docs/额外BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\git\TripleKey\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE89638-AEDD-4F06-9AB5-3FB072758370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF927CA-A4A3-4C2B-B25A-A3E230B2615B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{264B0C75-05C9-47B9-9D38-2D7466DD5A80}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
   <si>
     <t>类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -365,6 +365,18 @@
   </si>
   <si>
     <t>本表以外所需器件根据立创EDA导出的BOM表购买，全部可在立创商城购买，大多也可在淘宝优信电子买到，自行选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人在传感器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海凌科HLK-LD2410C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.tb.cn/h.gXZng5j</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -480,7 +492,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -503,6 +515,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -512,60 +535,66 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -884,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4608475-CCB8-4A65-8863-7B876E3030B5}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -896,421 +925,443 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="10"/>
-      <c r="G6" s="5">
+      <c r="G6" s="2">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="2">
         <v>3</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="2">
         <v>3</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="10"/>
-      <c r="G8" s="5">
+      <c r="G8" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="2">
         <v>1</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="2">
         <v>1</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="10"/>
-      <c r="G10" s="5">
+      <c r="G10" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="2">
         <v>3</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="2">
         <v>3</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="5">
+      <c r="F12" s="5"/>
+      <c r="G12" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="5">
+      <c r="F13" s="5"/>
+      <c r="G13" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="2">
         <v>4</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="5">
+      <c r="F14" s="5"/>
+      <c r="G14" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="2">
         <v>4</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="5">
+      <c r="F15" s="5"/>
+      <c r="G15" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="2">
         <v>3</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="2">
         <v>1</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="2">
         <v>1</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="18">
+        <v>1</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C21" s="2">
         <v>1</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D21" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F21" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G21" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+    <row r="22" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C22" s="2">
         <v>1</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F22" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G22" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1332,16 +1383,16 @@
     <row r="41" ht="50" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="F5:F6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -1357,8 +1408,9 @@
     <hyperlink ref="D15" r:id="rId10" xr:uid="{CE833B73-FC39-4E04-A36E-DA99E8E974E4}"/>
     <hyperlink ref="D17" r:id="rId11" xr:uid="{D99BD2FB-1FDF-407A-BD3D-0D279CA5A3F6}"/>
     <hyperlink ref="D18" r:id="rId12" xr:uid="{41B5024A-85A3-4179-B6F8-EA6AAC0C6508}"/>
+    <hyperlink ref="D20" r:id="rId13" xr:uid="{AEB35C48-3D7A-472F-91B9-B593EC858DF3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/docs/额外BOM.xlsx
+++ b/docs/额外BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\git\TripleKey\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF927CA-A4A3-4C2B-B25A-A3E230B2615B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15615832-934B-419F-A90D-C6E1FE6D3DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{264B0C75-05C9-47B9-9D38-2D7466DD5A80}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
   <si>
     <t>类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -377,6 +377,18 @@
   </si>
   <si>
     <t>https://m.tb.cn/h.gXZng5j</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功放芯片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS4168</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.tb.cn/h.gcsmIYJ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -563,38 +575,38 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -911,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4608475-CCB8-4A65-8863-7B876E3030B5}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -925,37 +937,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -981,7 +993,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -996,7 +1008,7 @@
       <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="2">
@@ -1004,7 +1016,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1017,13 +1029,13 @@
       <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="2">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1038,7 +1050,7 @@
       <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="16" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="2">
@@ -1046,7 +1058,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
@@ -1059,13 +1071,13 @@
       <c r="E8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1080,7 +1092,7 @@
       <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="16" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="2">
@@ -1088,7 +1100,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1101,7 +1113,7 @@
       <c r="E10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="2">
         <v>2</v>
       </c>
@@ -1214,15 +1226,15 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
     </row>
     <row r="17" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -1249,62 +1261,60 @@
     </row>
     <row r="18" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>50</v>
-      </c>
+      <c r="F18" s="7"/>
       <c r="G18" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>55</v>
+      <c r="D19" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G19" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="18">
+      <c r="A20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="2">
         <v>1</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>65</v>
+      <c r="D20" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>17</v>
@@ -1312,31 +1322,31 @@
       <c r="F20" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="A21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="9">
         <v>1</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>57</v>
+      <c r="D21" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="2">
-        <v>2</v>
+        <v>61</v>
+      </c>
+      <c r="G21" s="9">
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
@@ -1344,7 +1354,7 @@
         <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -1356,13 +1366,35 @@
         <v>17</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G22" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2</v>
+      </c>
+    </row>
     <row r="24" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1381,18 +1413,19 @@
     <row r="39" ht="50" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="40" ht="50" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="41" ht="50" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="50" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A16:G16"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A16:G16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -1407,10 +1440,11 @@
     <hyperlink ref="D14" r:id="rId9" xr:uid="{79722050-051E-46DF-A355-824E47776EFB}"/>
     <hyperlink ref="D15" r:id="rId10" xr:uid="{CE833B73-FC39-4E04-A36E-DA99E8E974E4}"/>
     <hyperlink ref="D17" r:id="rId11" xr:uid="{D99BD2FB-1FDF-407A-BD3D-0D279CA5A3F6}"/>
-    <hyperlink ref="D18" r:id="rId12" xr:uid="{41B5024A-85A3-4179-B6F8-EA6AAC0C6508}"/>
-    <hyperlink ref="D20" r:id="rId13" xr:uid="{AEB35C48-3D7A-472F-91B9-B593EC858DF3}"/>
+    <hyperlink ref="D19" r:id="rId12" xr:uid="{41B5024A-85A3-4179-B6F8-EA6AAC0C6508}"/>
+    <hyperlink ref="D21" r:id="rId13" xr:uid="{AEB35C48-3D7A-472F-91B9-B593EC858DF3}"/>
+    <hyperlink ref="D18" r:id="rId14" xr:uid="{B67B3B2A-1B4C-42EA-98E7-E9D1E8FEC648}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/docs/额外BOM.xlsx
+++ b/docs/额外BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\git\TripleKey\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15615832-934B-419F-A90D-C6E1FE6D3DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548DEA04-0A4C-4B22-8E9E-164DF8118A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{264B0C75-05C9-47B9-9D38-2D7466DD5A80}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
   <si>
     <t>类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -340,26 +340,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>18P 间隔0.5mm长50mm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>淘宝自搜</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>外壳拓展方案一所需</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>18P 间隔0.5mm长100mm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>外壳拓展方案二所需</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>接入米家所需</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -372,14 +360,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>海凌科HLK-LD2410C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://m.tb.cn/h.gXZng5j</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>功放芯片</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -389,6 +369,14 @@
   </si>
   <si>
     <t>https://m.tb.cn/h.gcsmIYJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海凌科HLK-LD2410B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.tb.cn/h.g484iFO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -581,6 +569,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -595,18 +595,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -923,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4608475-CCB8-4A65-8863-7B876E3030B5}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -937,37 +925,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="A3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -993,7 +981,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1008,7 +996,7 @@
       <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="2">
@@ -1016,7 +1004,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1029,13 +1017,13 @@
       <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="16"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="2">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1050,7 +1038,7 @@
       <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="2">
@@ -1058,7 +1046,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
@@ -1071,13 +1059,13 @@
       <c r="E8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="16"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1092,7 +1080,7 @@
       <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="2">
@@ -1100,7 +1088,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1113,7 +1101,7 @@
       <c r="E10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="16"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="2">
         <v>2</v>
       </c>
@@ -1226,15 +1214,15 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -1261,16 +1249,16 @@
     </row>
     <row r="18" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>17</v>
@@ -1320,7 +1308,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G20" s="2">
         <v>15</v>
@@ -1328,7 +1316,7 @@
     </row>
     <row r="21" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>64</v>
@@ -1343,7 +1331,7 @@
         <v>17</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G21" s="9">
         <v>15</v>
@@ -1354,13 +1342,13 @@
         <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>17</v>
@@ -1372,29 +1360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" s="2">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="23" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1413,19 +1379,18 @@
     <row r="39" ht="50" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="40" ht="50" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="41" ht="50" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="50" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="F5:F6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
